--- a/Ip cimek.xlsx
+++ b/Ip cimek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Eszköznév:</t>
   </si>
@@ -54,9 +54,6 @@
     <t>192.1.20.1</t>
   </si>
   <si>
-    <t>192.1.30.1</t>
-  </si>
-  <si>
     <t>192.2.10.1</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>10.1.3.0</t>
   </si>
   <si>
-    <t>Vezetoseg_wifi</t>
-  </si>
-  <si>
     <t>192.168.10.0</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
   </si>
   <si>
     <t>192.168.30.0</t>
-  </si>
-  <si>
-    <t>192.168.40.0</t>
   </si>
   <si>
     <t>Wireless router1</t>
@@ -426,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="C2:F4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +439,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -511,107 +502,91 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
       <c r="F9">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="F10">
-        <v>24</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>30</v>
       </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12">
-        <v>30</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12">
-        <v>24</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L13">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L14">
         <v>24</v>
@@ -619,33 +594,52 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L15">
         <v>24</v>
       </c>
     </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
